--- a/mcmaster_excel/Metric_Stainless_Steel_Pan_Head_Screws_with_Spring_Lock_Washer.xlsx
+++ b/mcmaster_excel/Metric_Stainless_Steel_Pan_Head_Screws_with_Spring_Lock_Washer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,221 +434,133 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>OD,mm.</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Thick.,mm</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No. 1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>91241A201</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>$13.17</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>M2.5 × 0.45 mm</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Washer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Lg., mm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>HeadDia., mm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>HeadHt., mm</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>OD,mm.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>Thick.,mm</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>70,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>91241A202</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>13.17</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>M2.5 × 0.45 mm</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -698,12 +610,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>91241A203</t>
+          <t>91241A201</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>13.17</t>
+          <t>$13.17</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -720,7 +632,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -770,12 +682,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>91241A204</t>
+          <t>91241A202</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -792,7 +704,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -802,22 +714,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -832,7 +744,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ASME B18.13</t>
+          <t>__</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -842,17 +754,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>91241A801</t>
+          <t>91241A203</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
+          <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -864,7 +776,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -874,22 +786,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -904,7 +816,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ASME B18.13</t>
+          <t>__</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -914,17 +826,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>91241A802</t>
+          <t>91241A204</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>13.77</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
+          <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -936,7 +848,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -986,12 +898,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>91241A803</t>
+          <t>91241A801</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1008,7 +920,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1058,12 +970,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>91241A804</t>
+          <t>91241A802</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1080,7 +992,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1130,12 +1042,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>91241A805</t>
+          <t>91241A803</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1152,7 +1064,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1162,27 +1074,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1202,17 +1114,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>91241A806</t>
+          <t>91241A804</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
+          <t>M3 × 0.5 mm</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1224,7 +1136,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1234,27 +1146,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1274,17 +1186,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>91241A807</t>
+          <t>91241A805</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
+          <t>M3 × 0.5 mm</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1296,7 +1208,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1346,12 +1258,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>91241A808</t>
+          <t>91241A806</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1368,7 +1280,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1418,12 +1330,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>91241A809</t>
+          <t>91241A807</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1440,7 +1352,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1490,12 +1402,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>91241A810</t>
+          <t>91241A808</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1512,7 +1424,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1522,22 +1434,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.75</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1562,17 +1474,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>91241A811</t>
+          <t>91241A809</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
+          <t>M4 × 0.7 mm</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1584,7 +1496,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1594,22 +1506,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>9.75</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1634,17 +1546,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>91241A812</t>
+          <t>91241A810</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
+          <t>M4 × 0.7 mm</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1656,7 +1568,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1706,12 +1618,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>91241A813</t>
+          <t>91241A811</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1728,7 +1640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1778,12 +1690,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>91241A814</t>
+          <t>91241A812</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>10.05</t>
+          <t>9.70</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1800,7 +1712,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1850,12 +1762,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>91241A815</t>
+          <t>91241A813</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>10.29</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1872,7 +1784,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1882,27 +1794,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1922,17 +1834,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>91241A816</t>
+          <t>91241A814</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M5 × 0.8 mm</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1944,7 +1856,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1954,27 +1866,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1994,17 +1906,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>91241A817</t>
+          <t>91241A815</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>11.65</t>
+          <t>10.29</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M5 × 0.8 mm</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2016,7 +1928,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2066,12 +1978,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>91241A818</t>
+          <t>91241A816</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2088,7 +2000,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2138,12 +2050,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>91241A819</t>
+          <t>91241A817</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>11.65</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2160,70 +2072,214 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ASME B18.13</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>91241A818</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ASME B18.13</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>91241A819</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>12.00</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>4.60</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>12.90</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>0.99</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>No. 3</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>ASME B18.13</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>91241A820</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>12.75</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
